--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH04_GenerateVirtualEvent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069639F1-B49C-4AD0-9832-259F2E7FD357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7AF590-793D-4088-AEE6-B2522D7D2588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21045" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>ManagementTestAddress</t>
+  </si>
+  <si>
+    <t>TestAddress</t>
+  </si>
+  <si>
+    <t>SendNotification_TestAddress</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1519,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1584,7 +1590,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\UiPath\NH04_GenerateVirtualEvent\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7AF590-793D-4088-AEE6-B2522D7D2588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDC8958-9A0A-41EF-AB3A-4A69A651EAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21045" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="4320" windowWidth="19455" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>TestEmail</t>
   </si>
   <si>
-    <t>NewHire_VirtualEventQueue</t>
-  </si>
-  <si>
     <t>ManagementTestAddress</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>SendNotification_TestAddress</t>
+  </si>
+  <si>
+    <t>NewHireVirtualEventQueue</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -1518,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1584,18 +1584,18 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
